--- a/example_data/EPA/label_corrected/083529-00049-20161104_2018-12-08_191007.xlsx
+++ b/example_data/EPA/label_corrected/083529-00049-20161104_2018-12-08_191007.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
@@ -589,7 +589,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
@@ -655,7 +655,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
@@ -766,7 +766,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Env warning - water</t>
+          <t>env warning - water</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -797,7 +797,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Env warning - species || Application instructions</t>
+          <t>application instructions || env warning - species</t>
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
@@ -957,7 +957,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
@@ -984,7 +984,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1054,7 +1054,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
@@ -1201,7 +1201,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1567,7 +1567,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Off Target Movement || Use Restrictions</t>
+          <t>use restrictions || off target movement</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1673,7 +1673,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -1820,7 +1820,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
@@ -1861,7 +1861,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1960,7 +1960,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -2039,7 +2039,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -2072,7 +2072,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Chemigation || Irrigation || Application Instructions</t>
+          <t>irrigation || application instructions || chemigation</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2357,7 +2357,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2404,7 +2404,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -2446,7 +2446,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G62" t="inlineStr"/>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Irrigation</t>
+          <t>irrigation</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -10172,7 +10172,7 @@
       </c>
       <c r="F332" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G332" t="inlineStr"/>
